--- a/temp_doc/PESERTA UJIAN - TO.xlsx
+++ b/temp_doc/PESERTA UJIAN - TO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.6admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB585F6-BC0F-DD44-AC2D-9E8D685AB570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578D7BE7-94D6-944D-A936-3F8E78B648E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16120" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
@@ -4756,7 +4756,7 @@
     <t>XII TJKT 3_SAS_2526</t>
   </si>
   <si>
-    <t>CBT12345</t>
+    <t>AAQA8173</t>
   </si>
 </sst>
 </file>
@@ -5122,11 +5122,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EC7F41-F6EF-E64F-BAAF-B3AB559FE08B}">
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:J386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5142,7 +5142,7 @@
     <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1723</v>
       </c>
@@ -5190,7 +5190,7 @@
       <c r="F2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>1571</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -5199,8 +5199,12 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="str">
+        <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1111,9999)</f>
+        <v>LGMR5794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1724</v>
       </c>
@@ -5219,7 +5223,7 @@
       <c r="F3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>1571</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -5229,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1725</v>
       </c>
@@ -5248,7 +5252,7 @@
       <c r="F4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>1571</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -5258,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1726</v>
       </c>
@@ -5277,7 +5281,7 @@
       <c r="F5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>1571</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -5287,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1727</v>
       </c>
@@ -5306,7 +5310,7 @@
       <c r="F6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>1571</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -5316,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1728</v>
       </c>
@@ -5335,7 +5339,7 @@
       <c r="F7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>1571</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -5345,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1729</v>
       </c>
@@ -5364,7 +5368,7 @@
       <c r="F8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>1571</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -5374,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1730</v>
       </c>
@@ -5393,7 +5397,7 @@
       <c r="F9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>1571</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -5403,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1731</v>
       </c>
@@ -5422,7 +5426,7 @@
       <c r="F10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>1571</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -5432,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1732</v>
       </c>
@@ -5451,7 +5455,7 @@
       <c r="F11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>1571</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -5461,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1733</v>
       </c>
@@ -5480,7 +5484,7 @@
       <c r="F12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>1571</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -5490,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1734</v>
       </c>
@@ -5509,7 +5513,7 @@
       <c r="F13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>1571</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -5519,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1735</v>
       </c>
@@ -5538,7 +5542,7 @@
       <c r="F14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>1571</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -5548,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1736</v>
       </c>
@@ -5567,7 +5571,7 @@
       <c r="F15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>1571</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -5577,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1737</v>
       </c>
@@ -5596,7 +5600,7 @@
       <c r="F16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>1571</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -5625,7 +5629,7 @@
       <c r="F17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>1571</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -5654,7 +5658,7 @@
       <c r="F18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>1571</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -5683,7 +5687,7 @@
       <c r="F19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>1571</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -5712,7 +5716,7 @@
       <c r="F20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>1571</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -5741,7 +5745,7 @@
       <c r="F21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>1571</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -5770,7 +5774,7 @@
       <c r="F22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>1571</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -5799,7 +5803,7 @@
       <c r="F23" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>1571</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -5828,7 +5832,7 @@
       <c r="F24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>1571</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -5857,7 +5861,7 @@
       <c r="F25" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>1571</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -5886,7 +5890,7 @@
       <c r="F26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>1571</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -5915,7 +5919,7 @@
       <c r="F27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>1571</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -5944,7 +5948,7 @@
       <c r="F28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>1571</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -5973,7 +5977,7 @@
       <c r="F29" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>1571</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -6002,7 +6006,7 @@
       <c r="F30" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>1571</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -6031,7 +6035,7 @@
       <c r="F31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>1571</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -6060,7 +6064,7 @@
       <c r="F32" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>1571</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -6089,7 +6093,7 @@
       <c r="F33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>1571</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -6118,7 +6122,7 @@
       <c r="F34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>1571</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -6147,7 +6151,7 @@
       <c r="F35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>1571</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -6176,7 +6180,7 @@
       <c r="F36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>1571</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -6205,7 +6209,7 @@
       <c r="F37" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>1571</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -6234,7 +6238,7 @@
       <c r="F38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>1571</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -6263,7 +6267,7 @@
       <c r="F39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>1571</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -6292,7 +6296,7 @@
       <c r="F40" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>1571</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -6321,7 +6325,7 @@
       <c r="F41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>1571</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -6350,7 +6354,7 @@
       <c r="F42" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>1571</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -6379,7 +6383,7 @@
       <c r="F43" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>1571</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -6408,7 +6412,7 @@
       <c r="F44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>1571</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -6437,7 +6441,7 @@
       <c r="F45" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>1571</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -6466,7 +6470,7 @@
       <c r="F46" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
         <v>1571</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -6495,7 +6499,7 @@
       <c r="F47" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
         <v>1571</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -6524,7 +6528,7 @@
       <c r="F48" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>1571</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -6553,7 +6557,7 @@
       <c r="F49" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
         <v>1571</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -6582,7 +6586,7 @@
       <c r="F50" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>1571</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -6611,7 +6615,7 @@
       <c r="F51" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
         <v>1571</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -6640,7 +6644,7 @@
       <c r="F52" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" t="s">
         <v>1571</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -6669,7 +6673,7 @@
       <c r="F53" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
         <v>1571</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -6698,7 +6702,7 @@
       <c r="F54" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" t="s">
         <v>1571</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -6727,7 +6731,7 @@
       <c r="F55" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
         <v>1571</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -6756,7 +6760,7 @@
       <c r="F56" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" t="s">
         <v>1571</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -6785,7 +6789,7 @@
       <c r="F57" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
         <v>1571</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -6814,7 +6818,7 @@
       <c r="F58" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>1571</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -6843,7 +6847,7 @@
       <c r="F59" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
         <v>1571</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -6872,7 +6876,7 @@
       <c r="F60" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" t="s">
         <v>1571</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -6901,7 +6905,7 @@
       <c r="F61" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" t="s">
         <v>1571</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -6930,7 +6934,7 @@
       <c r="F62" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" t="s">
         <v>1571</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -6959,7 +6963,7 @@
       <c r="F63" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" t="s">
         <v>1571</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -6988,7 +6992,7 @@
       <c r="F64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" t="s">
         <v>1571</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -7017,7 +7021,7 @@
       <c r="F65" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" t="s">
         <v>1571</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -7046,7 +7050,7 @@
       <c r="F66" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" t="s">
         <v>1571</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -7075,7 +7079,7 @@
       <c r="F67" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" t="s">
         <v>1571</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -7104,7 +7108,7 @@
       <c r="F68" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" t="s">
         <v>1571</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -7133,7 +7137,7 @@
       <c r="F69" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" t="s">
         <v>1571</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -7162,7 +7166,7 @@
       <c r="F70" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" t="s">
         <v>1571</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -7191,7 +7195,7 @@
       <c r="F71" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" t="s">
         <v>1571</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -7220,7 +7224,7 @@
       <c r="F72" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" t="s">
         <v>1571</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -7249,7 +7253,7 @@
       <c r="F73" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" t="s">
         <v>1571</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -7278,7 +7282,7 @@
       <c r="F74" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" t="s">
         <v>1571</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -7307,7 +7311,7 @@
       <c r="F75" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" t="s">
         <v>1571</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -7336,7 +7340,7 @@
       <c r="F76" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" t="s">
         <v>1571</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -7365,7 +7369,7 @@
       <c r="F77" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" t="s">
         <v>1571</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -7394,7 +7398,7 @@
       <c r="F78" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" t="s">
         <v>1571</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -7423,7 +7427,7 @@
       <c r="F79" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" t="s">
         <v>1571</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -7452,7 +7456,7 @@
       <c r="F80" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" t="s">
         <v>1571</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -7481,7 +7485,7 @@
       <c r="F81" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" t="s">
         <v>1571</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -7510,7 +7514,7 @@
       <c r="F82" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" t="s">
         <v>1571</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -7539,7 +7543,7 @@
       <c r="F83" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" t="s">
         <v>1571</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -7568,7 +7572,7 @@
       <c r="F84" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" t="s">
         <v>1571</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -7597,7 +7601,7 @@
       <c r="F85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" t="s">
         <v>1571</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -7626,7 +7630,7 @@
       <c r="F86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" t="s">
         <v>1571</v>
       </c>
       <c r="H86" s="1" t="s">
@@ -7655,7 +7659,7 @@
       <c r="F87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" t="s">
         <v>1571</v>
       </c>
       <c r="H87" s="1" t="s">
@@ -7684,7 +7688,7 @@
       <c r="F88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" t="s">
         <v>1571</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -7713,7 +7717,7 @@
       <c r="F89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" t="s">
         <v>1571</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -7742,7 +7746,7 @@
       <c r="F90" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" t="s">
         <v>1571</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -7771,7 +7775,7 @@
       <c r="F91" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" t="s">
         <v>1571</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -7800,7 +7804,7 @@
       <c r="F92" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" t="s">
         <v>1571</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -7829,7 +7833,7 @@
       <c r="F93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" t="s">
         <v>1571</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -7858,7 +7862,7 @@
       <c r="F94" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" t="s">
         <v>1571</v>
       </c>
       <c r="H94" s="1" t="s">
@@ -7887,7 +7891,7 @@
       <c r="F95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" t="s">
         <v>1571</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -7916,7 +7920,7 @@
       <c r="F96" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" t="s">
         <v>1571</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -7945,7 +7949,7 @@
       <c r="F97" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" t="s">
         <v>1571</v>
       </c>
       <c r="H97" s="1" t="s">
@@ -7974,7 +7978,7 @@
       <c r="F98" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" t="s">
         <v>1571</v>
       </c>
       <c r="H98" s="1" t="s">
@@ -8003,7 +8007,7 @@
       <c r="F99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" t="s">
         <v>1571</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -8032,7 +8036,7 @@
       <c r="F100" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" t="s">
         <v>1571</v>
       </c>
       <c r="H100" s="1" t="s">
@@ -8061,7 +8065,7 @@
       <c r="F101" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" t="s">
         <v>1571</v>
       </c>
       <c r="H101" s="1" t="s">
@@ -8090,7 +8094,7 @@
       <c r="F102" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" t="s">
         <v>1571</v>
       </c>
       <c r="H102" s="1" t="s">
@@ -8119,7 +8123,7 @@
       <c r="F103" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" t="s">
         <v>1571</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -8148,7 +8152,7 @@
       <c r="F104" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" t="s">
         <v>1571</v>
       </c>
       <c r="H104" s="1" t="s">
@@ -8177,7 +8181,7 @@
       <c r="F105" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" t="s">
         <v>1571</v>
       </c>
       <c r="H105" s="1" t="s">
@@ -8206,7 +8210,7 @@
       <c r="F106" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" t="s">
         <v>1571</v>
       </c>
       <c r="H106" s="1" t="s">
@@ -8235,7 +8239,7 @@
       <c r="F107" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" t="s">
         <v>1571</v>
       </c>
       <c r="H107" s="1" t="s">
@@ -8264,7 +8268,7 @@
       <c r="F108" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" t="s">
         <v>1571</v>
       </c>
       <c r="H108" s="1" t="s">
@@ -8293,7 +8297,7 @@
       <c r="F109" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" t="s">
         <v>1571</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -8322,7 +8326,7 @@
       <c r="F110" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G110" t="s">
         <v>1571</v>
       </c>
       <c r="H110" s="1" t="s">
@@ -8351,7 +8355,7 @@
       <c r="F111" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" t="s">
         <v>1571</v>
       </c>
       <c r="H111" s="1" t="s">
@@ -8380,7 +8384,7 @@
       <c r="F112" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" t="s">
         <v>1571</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -8409,7 +8413,7 @@
       <c r="F113" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" t="s">
         <v>1571</v>
       </c>
       <c r="H113" s="1" t="s">
@@ -8438,7 +8442,7 @@
       <c r="F114" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" t="s">
         <v>1571</v>
       </c>
       <c r="H114" s="1" t="s">
@@ -8467,7 +8471,7 @@
       <c r="F115" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" t="s">
         <v>1571</v>
       </c>
       <c r="H115" s="1" t="s">
@@ -8496,7 +8500,7 @@
       <c r="F116" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" t="s">
         <v>1571</v>
       </c>
       <c r="H116" s="1" t="s">
@@ -8525,7 +8529,7 @@
       <c r="F117" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" t="s">
         <v>1571</v>
       </c>
       <c r="H117" s="1" t="s">
@@ -8554,7 +8558,7 @@
       <c r="F118" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G118" t="s">
         <v>1571</v>
       </c>
       <c r="H118" s="1" t="s">
@@ -8583,7 +8587,7 @@
       <c r="F119" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G119" t="s">
         <v>1571</v>
       </c>
       <c r="H119" s="1" t="s">
@@ -8612,7 +8616,7 @@
       <c r="F120" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" t="s">
         <v>1571</v>
       </c>
       <c r="H120" s="1" t="s">
@@ -8641,7 +8645,7 @@
       <c r="F121" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" t="s">
         <v>1571</v>
       </c>
       <c r="H121" s="1" t="s">
@@ -8670,7 +8674,7 @@
       <c r="F122" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" t="s">
         <v>1571</v>
       </c>
       <c r="H122" s="1" t="s">
@@ -8699,7 +8703,7 @@
       <c r="F123" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" t="s">
         <v>1571</v>
       </c>
       <c r="H123" s="1" t="s">
@@ -8728,7 +8732,7 @@
       <c r="F124" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G124" t="s">
         <v>1571</v>
       </c>
       <c r="H124" s="1" t="s">
@@ -8757,7 +8761,7 @@
       <c r="F125" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" t="s">
         <v>1571</v>
       </c>
       <c r="H125" s="1" t="s">
@@ -8786,7 +8790,7 @@
       <c r="F126" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G126" t="s">
         <v>1571</v>
       </c>
       <c r="H126" s="1" t="s">
@@ -8815,7 +8819,7 @@
       <c r="F127" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G127" t="s">
         <v>1571</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -8844,7 +8848,7 @@
       <c r="F128" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" t="s">
         <v>1571</v>
       </c>
       <c r="H128" s="1" t="s">
@@ -8873,7 +8877,7 @@
       <c r="F129" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" t="s">
         <v>1571</v>
       </c>
       <c r="H129" s="1" t="s">
@@ -8902,7 +8906,7 @@
       <c r="F130" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G130" t="s">
         <v>1571</v>
       </c>
       <c r="H130" s="1" t="s">
@@ -8931,7 +8935,7 @@
       <c r="F131" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" t="s">
         <v>1571</v>
       </c>
       <c r="H131" s="1" t="s">
@@ -8960,7 +8964,7 @@
       <c r="F132" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" t="s">
         <v>1571</v>
       </c>
       <c r="H132" s="1" t="s">
@@ -8989,7 +8993,7 @@
       <c r="F133" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G133" t="s">
         <v>1571</v>
       </c>
       <c r="H133" s="1" t="s">
@@ -9018,7 +9022,7 @@
       <c r="F134" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G134" t="s">
         <v>1571</v>
       </c>
       <c r="H134" s="1" t="s">
@@ -9047,7 +9051,7 @@
       <c r="F135" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G135" t="s">
         <v>1571</v>
       </c>
       <c r="H135" s="1" t="s">
@@ -9076,7 +9080,7 @@
       <c r="F136" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" t="s">
         <v>1571</v>
       </c>
       <c r="H136" s="1" t="s">
@@ -9105,7 +9109,7 @@
       <c r="F137" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G137" t="s">
         <v>1571</v>
       </c>
       <c r="H137" s="1" t="s">
@@ -9134,7 +9138,7 @@
       <c r="F138" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G138" t="s">
         <v>1571</v>
       </c>
       <c r="H138" s="1" t="s">
@@ -9163,7 +9167,7 @@
       <c r="F139" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G139" t="s">
         <v>1571</v>
       </c>
       <c r="H139" s="1" t="s">
@@ -9192,7 +9196,7 @@
       <c r="F140" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G140" t="s">
         <v>1571</v>
       </c>
       <c r="H140" s="1" t="s">
@@ -9221,7 +9225,7 @@
       <c r="F141" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G141" t="s">
         <v>1571</v>
       </c>
       <c r="H141" s="1" t="s">
@@ -9250,7 +9254,7 @@
       <c r="F142" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G142" t="s">
         <v>1571</v>
       </c>
       <c r="H142" s="1" t="s">
@@ -9279,7 +9283,7 @@
       <c r="F143" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G143" t="s">
         <v>1571</v>
       </c>
       <c r="H143" s="1" t="s">
@@ -9308,7 +9312,7 @@
       <c r="F144" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G144" t="s">
         <v>1571</v>
       </c>
       <c r="H144" s="1" t="s">
@@ -9337,7 +9341,7 @@
       <c r="F145" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G145" t="s">
         <v>1571</v>
       </c>
       <c r="H145" s="1" t="s">
@@ -9366,7 +9370,7 @@
       <c r="F146" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G146" t="s">
         <v>1571</v>
       </c>
       <c r="H146" s="1" t="s">
@@ -9395,7 +9399,7 @@
       <c r="F147" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G147" t="s">
         <v>1571</v>
       </c>
       <c r="H147" s="1" t="s">
@@ -9424,7 +9428,7 @@
       <c r="F148" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G148" t="s">
         <v>1571</v>
       </c>
       <c r="H148" s="1" t="s">
@@ -9453,7 +9457,7 @@
       <c r="F149" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G149" t="s">
         <v>1571</v>
       </c>
       <c r="H149" s="1" t="s">
@@ -9482,7 +9486,7 @@
       <c r="F150" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G150" t="s">
         <v>1571</v>
       </c>
       <c r="H150" s="1" t="s">
@@ -9511,7 +9515,7 @@
       <c r="F151" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G151" t="s">
         <v>1571</v>
       </c>
       <c r="H151" s="1" t="s">
@@ -9540,7 +9544,7 @@
       <c r="F152" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G152" t="s">
         <v>1571</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -9569,7 +9573,7 @@
       <c r="F153" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G153" t="s">
         <v>1571</v>
       </c>
       <c r="H153" s="1" t="s">
@@ -9598,7 +9602,7 @@
       <c r="F154" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G154" t="s">
         <v>1571</v>
       </c>
       <c r="H154" s="1" t="s">
@@ -9627,7 +9631,7 @@
       <c r="F155" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G155" t="s">
         <v>1571</v>
       </c>
       <c r="H155" s="1" t="s">
@@ -9656,7 +9660,7 @@
       <c r="F156" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G156" t="s">
         <v>1571</v>
       </c>
       <c r="H156" s="1" t="s">
@@ -9685,7 +9689,7 @@
       <c r="F157" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G157" t="s">
         <v>1571</v>
       </c>
       <c r="H157" s="1" t="s">
@@ -9714,7 +9718,7 @@
       <c r="F158" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G158" t="s">
         <v>1571</v>
       </c>
       <c r="H158" s="1" t="s">
@@ -9743,7 +9747,7 @@
       <c r="F159" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G159" t="s">
         <v>1571</v>
       </c>
       <c r="H159" s="1" t="s">
@@ -9772,7 +9776,7 @@
       <c r="F160" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G160" t="s">
         <v>1571</v>
       </c>
       <c r="H160" s="1" t="s">
@@ -9801,7 +9805,7 @@
       <c r="F161" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G161" t="s">
         <v>1571</v>
       </c>
       <c r="H161" s="1" t="s">
@@ -9830,7 +9834,7 @@
       <c r="F162" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G162" t="s">
         <v>1571</v>
       </c>
       <c r="H162" s="1" t="s">
@@ -9859,7 +9863,7 @@
       <c r="F163" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G163" t="s">
         <v>1571</v>
       </c>
       <c r="H163" s="1" t="s">
@@ -9888,7 +9892,7 @@
       <c r="F164" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G164" t="s">
         <v>1571</v>
       </c>
       <c r="H164" s="1" t="s">
@@ -9917,7 +9921,7 @@
       <c r="F165" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="G165" t="s">
         <v>1571</v>
       </c>
       <c r="H165" s="1" t="s">
@@ -9946,7 +9950,7 @@
       <c r="F166" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G166" t="s">
         <v>1571</v>
       </c>
       <c r="H166" s="1" t="s">
@@ -9975,7 +9979,7 @@
       <c r="F167" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G167" t="s">
         <v>1571</v>
       </c>
       <c r="H167" s="1" t="s">
@@ -10004,7 +10008,7 @@
       <c r="F168" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G168" t="s">
         <v>1571</v>
       </c>
       <c r="H168" s="1" t="s">
@@ -10033,7 +10037,7 @@
       <c r="F169" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" t="s">
         <v>1571</v>
       </c>
       <c r="H169" s="1" t="s">
@@ -10062,7 +10066,7 @@
       <c r="F170" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G170" t="s">
         <v>1571</v>
       </c>
       <c r="H170" s="1" t="s">
@@ -10091,7 +10095,7 @@
       <c r="F171" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="G171" t="s">
         <v>1571</v>
       </c>
       <c r="H171" s="1" t="s">
@@ -10120,7 +10124,7 @@
       <c r="F172" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G172" t="s">
         <v>1571</v>
       </c>
       <c r="H172" s="1" t="s">
@@ -10149,7 +10153,7 @@
       <c r="F173" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G173" t="s">
         <v>1571</v>
       </c>
       <c r="H173" s="1" t="s">
@@ -10178,7 +10182,7 @@
       <c r="F174" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="G174" t="s">
         <v>1571</v>
       </c>
       <c r="H174" s="1" t="s">
@@ -10207,7 +10211,7 @@
       <c r="F175" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="G175" t="s">
         <v>1571</v>
       </c>
       <c r="H175" s="1" t="s">
@@ -10236,7 +10240,7 @@
       <c r="F176" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="G176" s="1" t="s">
+      <c r="G176" t="s">
         <v>1571</v>
       </c>
       <c r="H176" s="1" t="s">
@@ -10265,7 +10269,7 @@
       <c r="F177" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="G177" t="s">
         <v>1571</v>
       </c>
       <c r="H177" s="1" t="s">
@@ -10294,7 +10298,7 @@
       <c r="F178" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="G178" t="s">
         <v>1571</v>
       </c>
       <c r="H178" s="1" t="s">
@@ -10323,7 +10327,7 @@
       <c r="F179" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="G179" t="s">
         <v>1571</v>
       </c>
       <c r="H179" s="1" t="s">
@@ -10352,7 +10356,7 @@
       <c r="F180" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G180" t="s">
         <v>1571</v>
       </c>
       <c r="H180" s="1" t="s">
@@ -10381,7 +10385,7 @@
       <c r="F181" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="G181" t="s">
         <v>1571</v>
       </c>
       <c r="H181" s="1" t="s">
@@ -10410,7 +10414,7 @@
       <c r="F182" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G182" t="s">
         <v>1571</v>
       </c>
       <c r="H182" s="1" t="s">
@@ -10439,7 +10443,7 @@
       <c r="F183" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="G183" t="s">
         <v>1571</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -10468,7 +10472,7 @@
       <c r="F184" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="G184" t="s">
         <v>1571</v>
       </c>
       <c r="H184" s="1" t="s">
@@ -10497,7 +10501,7 @@
       <c r="F185" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G185" t="s">
         <v>1571</v>
       </c>
       <c r="H185" s="1" t="s">
@@ -10526,7 +10530,7 @@
       <c r="F186" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="G186" t="s">
         <v>1571</v>
       </c>
       <c r="H186" s="1" t="s">
@@ -10555,7 +10559,7 @@
       <c r="F187" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="G187" t="s">
         <v>1571</v>
       </c>
       <c r="H187" s="1" t="s">
@@ -10584,7 +10588,7 @@
       <c r="F188" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="G188" t="s">
         <v>1571</v>
       </c>
       <c r="H188" s="1" t="s">
@@ -10613,7 +10617,7 @@
       <c r="F189" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="G189" t="s">
         <v>1571</v>
       </c>
       <c r="H189" s="1" t="s">
@@ -10642,7 +10646,7 @@
       <c r="F190" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="G190" t="s">
         <v>1571</v>
       </c>
       <c r="H190" s="1" t="s">
@@ -10671,7 +10675,7 @@
       <c r="F191" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="G191" t="s">
         <v>1571</v>
       </c>
       <c r="H191" s="1" t="s">
@@ -10700,7 +10704,7 @@
       <c r="F192" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="G192" t="s">
         <v>1571</v>
       </c>
       <c r="H192" s="1" t="s">
@@ -10729,7 +10733,7 @@
       <c r="F193" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="G193" t="s">
         <v>1571</v>
       </c>
       <c r="H193" s="1" t="s">
@@ -10758,7 +10762,7 @@
       <c r="F194" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="G194" t="s">
         <v>1571</v>
       </c>
       <c r="H194" s="1" t="s">
@@ -10787,7 +10791,7 @@
       <c r="F195" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="G195" t="s">
         <v>1571</v>
       </c>
       <c r="H195" s="1" t="s">
@@ -10816,7 +10820,7 @@
       <c r="F196" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="G196" t="s">
         <v>1571</v>
       </c>
       <c r="H196" s="1" t="s">
@@ -10845,7 +10849,7 @@
       <c r="F197" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G197" t="s">
         <v>1571</v>
       </c>
       <c r="H197" s="1" t="s">
@@ -10874,7 +10878,7 @@
       <c r="F198" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="G198" t="s">
         <v>1571</v>
       </c>
       <c r="H198" s="1" t="s">
@@ -10903,7 +10907,7 @@
       <c r="F199" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="G199" t="s">
         <v>1571</v>
       </c>
       <c r="H199" s="1" t="s">
@@ -10932,7 +10936,7 @@
       <c r="F200" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="G200" t="s">
         <v>1571</v>
       </c>
       <c r="H200" s="1" t="s">
@@ -10961,7 +10965,7 @@
       <c r="F201" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="G201" t="s">
         <v>1571</v>
       </c>
       <c r="H201" s="1" t="s">
@@ -10990,7 +10994,7 @@
       <c r="F202" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="G202" t="s">
         <v>1571</v>
       </c>
       <c r="H202" s="1" t="s">
@@ -11019,7 +11023,7 @@
       <c r="F203" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="G203" t="s">
         <v>1571</v>
       </c>
       <c r="H203" s="1" t="s">
@@ -11048,7 +11052,7 @@
       <c r="F204" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="G204" t="s">
         <v>1571</v>
       </c>
       <c r="H204" s="1" t="s">
@@ -11077,7 +11081,7 @@
       <c r="F205" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="G205" t="s">
         <v>1571</v>
       </c>
       <c r="H205" s="1" t="s">
@@ -11106,7 +11110,7 @@
       <c r="F206" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G206" s="1" t="s">
+      <c r="G206" t="s">
         <v>1571</v>
       </c>
       <c r="H206" s="1" t="s">
@@ -11135,7 +11139,7 @@
       <c r="F207" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="G207" t="s">
         <v>1571</v>
       </c>
       <c r="H207" s="1" t="s">
@@ -11164,7 +11168,7 @@
       <c r="F208" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="G208" t="s">
         <v>1571</v>
       </c>
       <c r="H208" s="1" t="s">
@@ -11193,7 +11197,7 @@
       <c r="F209" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G209" s="1" t="s">
+      <c r="G209" t="s">
         <v>1571</v>
       </c>
       <c r="H209" s="1" t="s">
@@ -11222,7 +11226,7 @@
       <c r="F210" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="G210" t="s">
         <v>1571</v>
       </c>
       <c r="H210" s="1" t="s">
@@ -11251,7 +11255,7 @@
       <c r="F211" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="G211" t="s">
         <v>1571</v>
       </c>
       <c r="H211" s="1" t="s">
@@ -11280,7 +11284,7 @@
       <c r="F212" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="G212" t="s">
         <v>1571</v>
       </c>
       <c r="H212" s="1" t="s">
@@ -11309,7 +11313,7 @@
       <c r="F213" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="G213" t="s">
         <v>1571</v>
       </c>
       <c r="H213" s="1" t="s">
@@ -11338,7 +11342,7 @@
       <c r="F214" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="G214" t="s">
         <v>1571</v>
       </c>
       <c r="H214" s="1" t="s">
@@ -11367,7 +11371,7 @@
       <c r="F215" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G215" t="s">
         <v>1571</v>
       </c>
       <c r="H215" s="1" t="s">
@@ -11396,7 +11400,7 @@
       <c r="F216" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="G216" t="s">
         <v>1571</v>
       </c>
       <c r="H216" s="1" t="s">
@@ -11425,7 +11429,7 @@
       <c r="F217" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G217" t="s">
         <v>1571</v>
       </c>
       <c r="H217" s="1" t="s">
@@ -11454,7 +11458,7 @@
       <c r="F218" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="G218" t="s">
         <v>1571</v>
       </c>
       <c r="H218" s="1" t="s">
@@ -11483,7 +11487,7 @@
       <c r="F219" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="G219" t="s">
         <v>1571</v>
       </c>
       <c r="H219" s="1" t="s">
@@ -11512,7 +11516,7 @@
       <c r="F220" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="G220" t="s">
         <v>1571</v>
       </c>
       <c r="H220" s="1" t="s">
@@ -11541,7 +11545,7 @@
       <c r="F221" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="G221" t="s">
         <v>1571</v>
       </c>
       <c r="H221" s="1" t="s">
@@ -11570,7 +11574,7 @@
       <c r="F222" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="G222" t="s">
         <v>1571</v>
       </c>
       <c r="H222" s="1" t="s">
@@ -11599,7 +11603,7 @@
       <c r="F223" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="G223" t="s">
         <v>1571</v>
       </c>
       <c r="H223" s="1" t="s">
@@ -11628,7 +11632,7 @@
       <c r="F224" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="G224" t="s">
         <v>1571</v>
       </c>
       <c r="H224" s="1" t="s">
@@ -11657,7 +11661,7 @@
       <c r="F225" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="G225" t="s">
         <v>1571</v>
       </c>
       <c r="H225" s="1" t="s">
@@ -11686,7 +11690,7 @@
       <c r="F226" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="G226" t="s">
         <v>1571</v>
       </c>
       <c r="H226" s="1" t="s">
@@ -11715,7 +11719,7 @@
       <c r="F227" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="G227" t="s">
         <v>1571</v>
       </c>
       <c r="H227" s="1" t="s">
@@ -11744,7 +11748,7 @@
       <c r="F228" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="G228" t="s">
         <v>1571</v>
       </c>
       <c r="H228" s="1" t="s">
@@ -11773,7 +11777,7 @@
       <c r="F229" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="G229" t="s">
         <v>1571</v>
       </c>
       <c r="H229" s="1" t="s">
@@ -11802,7 +11806,7 @@
       <c r="F230" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="G230" t="s">
         <v>1571</v>
       </c>
       <c r="H230" s="1" t="s">
@@ -11831,7 +11835,7 @@
       <c r="F231" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="G231" t="s">
         <v>1571</v>
       </c>
       <c r="H231" s="1" t="s">
@@ -11860,7 +11864,7 @@
       <c r="F232" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="G232" t="s">
         <v>1571</v>
       </c>
       <c r="H232" s="1" t="s">
@@ -11889,7 +11893,7 @@
       <c r="F233" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="G233" t="s">
         <v>1571</v>
       </c>
       <c r="H233" s="1" t="s">
@@ -11918,7 +11922,7 @@
       <c r="F234" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="G234" t="s">
         <v>1571</v>
       </c>
       <c r="H234" s="1" t="s">
@@ -11947,7 +11951,7 @@
       <c r="F235" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G235" s="1" t="s">
+      <c r="G235" t="s">
         <v>1571</v>
       </c>
       <c r="H235" s="1" t="s">
@@ -11976,7 +11980,7 @@
       <c r="F236" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="G236" t="s">
         <v>1571</v>
       </c>
       <c r="H236" s="1" t="s">
@@ -12005,7 +12009,7 @@
       <c r="F237" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="G237" t="s">
         <v>1571</v>
       </c>
       <c r="H237" s="1" t="s">
@@ -12034,7 +12038,7 @@
       <c r="F238" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G238" s="1" t="s">
+      <c r="G238" t="s">
         <v>1571</v>
       </c>
       <c r="H238" s="1" t="s">
@@ -12063,7 +12067,7 @@
       <c r="F239" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="G239" t="s">
         <v>1571</v>
       </c>
       <c r="H239" s="1" t="s">
@@ -12092,7 +12096,7 @@
       <c r="F240" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="G240" t="s">
         <v>1571</v>
       </c>
       <c r="H240" s="1" t="s">
@@ -12121,7 +12125,7 @@
       <c r="F241" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G241" s="1" t="s">
+      <c r="G241" t="s">
         <v>1571</v>
       </c>
       <c r="H241" s="1" t="s">
@@ -12150,7 +12154,7 @@
       <c r="F242" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="G242" s="1" t="s">
+      <c r="G242" t="s">
         <v>1571</v>
       </c>
       <c r="H242" s="1" t="s">
@@ -12179,7 +12183,7 @@
       <c r="F243" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="G243" s="1" t="s">
+      <c r="G243" t="s">
         <v>1571</v>
       </c>
       <c r="H243" s="1" t="s">
@@ -12208,7 +12212,7 @@
       <c r="F244" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="G244" t="s">
         <v>1571</v>
       </c>
       <c r="H244" s="1" t="s">
@@ -12237,7 +12241,7 @@
       <c r="F245" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="G245" t="s">
         <v>1571</v>
       </c>
       <c r="H245" s="1" t="s">
@@ -12266,7 +12270,7 @@
       <c r="F246" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G246" s="1" t="s">
+      <c r="G246" t="s">
         <v>1571</v>
       </c>
       <c r="H246" s="1" t="s">
@@ -12295,7 +12299,7 @@
       <c r="F247" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="G247" t="s">
         <v>1571</v>
       </c>
       <c r="H247" s="1" t="s">
@@ -12324,7 +12328,7 @@
       <c r="F248" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G248" s="1" t="s">
+      <c r="G248" t="s">
         <v>1571</v>
       </c>
       <c r="H248" s="1" t="s">
@@ -12353,7 +12357,7 @@
       <c r="F249" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G249" s="1" t="s">
+      <c r="G249" t="s">
         <v>1571</v>
       </c>
       <c r="H249" s="1" t="s">
@@ -12382,7 +12386,7 @@
       <c r="F250" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G250" s="1" t="s">
+      <c r="G250" t="s">
         <v>1571</v>
       </c>
       <c r="H250" s="1" t="s">
@@ -12411,7 +12415,7 @@
       <c r="F251" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G251" s="1" t="s">
+      <c r="G251" t="s">
         <v>1571</v>
       </c>
       <c r="H251" s="1" t="s">
@@ -12440,7 +12444,7 @@
       <c r="F252" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G252" s="1" t="s">
+      <c r="G252" t="s">
         <v>1571</v>
       </c>
       <c r="H252" s="1" t="s">
@@ -12469,7 +12473,7 @@
       <c r="F253" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="G253" s="1" t="s">
+      <c r="G253" t="s">
         <v>1571</v>
       </c>
       <c r="H253" s="1" t="s">
@@ -12498,7 +12502,7 @@
       <c r="F254" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G254" s="1" t="s">
+      <c r="G254" t="s">
         <v>1571</v>
       </c>
       <c r="H254" s="1" t="s">
@@ -12527,7 +12531,7 @@
       <c r="F255" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G255" s="1" t="s">
+      <c r="G255" t="s">
         <v>1571</v>
       </c>
       <c r="H255" s="1" t="s">
@@ -12556,7 +12560,7 @@
       <c r="F256" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G256" s="1" t="s">
+      <c r="G256" t="s">
         <v>1571</v>
       </c>
       <c r="H256" s="1" t="s">
@@ -12585,7 +12589,7 @@
       <c r="F257" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="G257" s="1" t="s">
+      <c r="G257" t="s">
         <v>1571</v>
       </c>
       <c r="H257" s="1" t="s">
@@ -12614,7 +12618,7 @@
       <c r="F258" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="G258" t="s">
         <v>1571</v>
       </c>
       <c r="H258" s="1" t="s">
@@ -12643,7 +12647,7 @@
       <c r="F259" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="G259" s="1" t="s">
+      <c r="G259" t="s">
         <v>1571</v>
       </c>
       <c r="H259" s="1" t="s">
@@ -12672,7 +12676,7 @@
       <c r="F260" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G260" s="1" t="s">
+      <c r="G260" t="s">
         <v>1571</v>
       </c>
       <c r="H260" s="1" t="s">
@@ -12701,7 +12705,7 @@
       <c r="F261" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="G261" s="1" t="s">
+      <c r="G261" t="s">
         <v>1571</v>
       </c>
       <c r="H261" s="1" t="s">
@@ -12730,7 +12734,7 @@
       <c r="F262" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G262" s="1" t="s">
+      <c r="G262" t="s">
         <v>1571</v>
       </c>
       <c r="H262" s="1" t="s">
@@ -12759,7 +12763,7 @@
       <c r="F263" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G263" s="1" t="s">
+      <c r="G263" t="s">
         <v>1571</v>
       </c>
       <c r="H263" s="1" t="s">
@@ -12788,7 +12792,7 @@
       <c r="F264" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G264" s="1" t="s">
+      <c r="G264" t="s">
         <v>1571</v>
       </c>
       <c r="H264" s="1" t="s">
@@ -12817,7 +12821,7 @@
       <c r="F265" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G265" s="1" t="s">
+      <c r="G265" t="s">
         <v>1571</v>
       </c>
       <c r="H265" s="1" t="s">
@@ -12846,7 +12850,7 @@
       <c r="F266" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G266" s="1" t="s">
+      <c r="G266" t="s">
         <v>1571</v>
       </c>
       <c r="H266" s="1" t="s">
@@ -12875,7 +12879,7 @@
       <c r="F267" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="G267" s="1" t="s">
+      <c r="G267" t="s">
         <v>1571</v>
       </c>
       <c r="H267" s="1" t="s">
@@ -12904,7 +12908,7 @@
       <c r="F268" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G268" s="1" t="s">
+      <c r="G268" t="s">
         <v>1571</v>
       </c>
       <c r="H268" s="1" t="s">
@@ -12933,7 +12937,7 @@
       <c r="F269" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G269" s="1" t="s">
+      <c r="G269" t="s">
         <v>1571</v>
       </c>
       <c r="H269" s="1" t="s">
@@ -12962,7 +12966,7 @@
       <c r="F270" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G270" s="1" t="s">
+      <c r="G270" t="s">
         <v>1571</v>
       </c>
       <c r="H270" s="1" t="s">
@@ -12991,7 +12995,7 @@
       <c r="F271" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="G271" s="1" t="s">
+      <c r="G271" t="s">
         <v>1571</v>
       </c>
       <c r="H271" s="1" t="s">
@@ -13020,7 +13024,7 @@
       <c r="F272" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G272" s="1" t="s">
+      <c r="G272" t="s">
         <v>1571</v>
       </c>
       <c r="H272" s="1" t="s">
@@ -13049,7 +13053,7 @@
       <c r="F273" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G273" s="1" t="s">
+      <c r="G273" t="s">
         <v>1571</v>
       </c>
       <c r="H273" s="1" t="s">
@@ -13078,7 +13082,7 @@
       <c r="F274" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G274" s="1" t="s">
+      <c r="G274" t="s">
         <v>1571</v>
       </c>
       <c r="H274" s="1" t="s">
@@ -13107,7 +13111,7 @@
       <c r="F275" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="G275" s="1" t="s">
+      <c r="G275" t="s">
         <v>1571</v>
       </c>
       <c r="H275" s="1" t="s">
@@ -13136,7 +13140,7 @@
       <c r="F276" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G276" s="1" t="s">
+      <c r="G276" t="s">
         <v>1571</v>
       </c>
       <c r="H276" s="1" t="s">
@@ -13165,7 +13169,7 @@
       <c r="F277" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="G277" s="1" t="s">
+      <c r="G277" t="s">
         <v>1571</v>
       </c>
       <c r="H277" s="1" t="s">
@@ -13194,7 +13198,7 @@
       <c r="F278" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="G278" s="1" t="s">
+      <c r="G278" t="s">
         <v>1571</v>
       </c>
       <c r="H278" s="1" t="s">
@@ -13223,7 +13227,7 @@
       <c r="F279" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G279" s="1" t="s">
+      <c r="G279" t="s">
         <v>1571</v>
       </c>
       <c r="H279" s="1" t="s">
@@ -13252,7 +13256,7 @@
       <c r="F280" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="G280" s="1" t="s">
+      <c r="G280" t="s">
         <v>1571</v>
       </c>
       <c r="H280" s="1" t="s">
@@ -13281,7 +13285,7 @@
       <c r="F281" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G281" s="1" t="s">
+      <c r="G281" t="s">
         <v>1571</v>
       </c>
       <c r="H281" s="1" t="s">
@@ -13310,7 +13314,7 @@
       <c r="F282" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G282" s="1" t="s">
+      <c r="G282" t="s">
         <v>1571</v>
       </c>
       <c r="H282" s="1" t="s">
@@ -13339,7 +13343,7 @@
       <c r="F283" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G283" s="1" t="s">
+      <c r="G283" t="s">
         <v>1571</v>
       </c>
       <c r="H283" s="1" t="s">
@@ -13368,7 +13372,7 @@
       <c r="F284" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="G284" s="1" t="s">
+      <c r="G284" t="s">
         <v>1571</v>
       </c>
       <c r="H284" s="1" t="s">
@@ -13397,7 +13401,7 @@
       <c r="F285" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G285" s="1" t="s">
+      <c r="G285" t="s">
         <v>1571</v>
       </c>
       <c r="H285" s="1" t="s">
@@ -13426,7 +13430,7 @@
       <c r="F286" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="G286" s="1" t="s">
+      <c r="G286" t="s">
         <v>1571</v>
       </c>
       <c r="H286" s="1" t="s">
@@ -13455,7 +13459,7 @@
       <c r="F287" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G287" s="1" t="s">
+      <c r="G287" t="s">
         <v>1571</v>
       </c>
       <c r="H287" s="1" t="s">
@@ -13484,7 +13488,7 @@
       <c r="F288" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G288" s="1" t="s">
+      <c r="G288" t="s">
         <v>1571</v>
       </c>
       <c r="H288" s="1" t="s">
@@ -13513,7 +13517,7 @@
       <c r="F289" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G289" s="1" t="s">
+      <c r="G289" t="s">
         <v>1571</v>
       </c>
       <c r="H289" s="1" t="s">
@@ -13542,7 +13546,7 @@
       <c r="F290" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G290" s="1" t="s">
+      <c r="G290" t="s">
         <v>1571</v>
       </c>
       <c r="H290" s="1" t="s">
@@ -13571,7 +13575,7 @@
       <c r="F291" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G291" s="1" t="s">
+      <c r="G291" t="s">
         <v>1571</v>
       </c>
       <c r="H291" s="1" t="s">
@@ -13600,7 +13604,7 @@
       <c r="F292" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="G292" s="1" t="s">
+      <c r="G292" t="s">
         <v>1571</v>
       </c>
       <c r="H292" s="1" t="s">
@@ -13629,7 +13633,7 @@
       <c r="F293" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G293" s="1" t="s">
+      <c r="G293" t="s">
         <v>1571</v>
       </c>
       <c r="H293" s="1" t="s">
@@ -13658,7 +13662,7 @@
       <c r="F294" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G294" s="1" t="s">
+      <c r="G294" t="s">
         <v>1571</v>
       </c>
       <c r="H294" s="1" t="s">
@@ -13687,7 +13691,7 @@
       <c r="F295" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G295" s="1" t="s">
+      <c r="G295" t="s">
         <v>1571</v>
       </c>
       <c r="H295" s="1" t="s">
@@ -13716,7 +13720,7 @@
       <c r="F296" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="G296" s="1" t="s">
+      <c r="G296" t="s">
         <v>1571</v>
       </c>
       <c r="H296" s="1" t="s">
@@ -13745,7 +13749,7 @@
       <c r="F297" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G297" s="1" t="s">
+      <c r="G297" t="s">
         <v>1571</v>
       </c>
       <c r="H297" s="1" t="s">
@@ -13774,7 +13778,7 @@
       <c r="F298" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G298" s="1" t="s">
+      <c r="G298" t="s">
         <v>1571</v>
       </c>
       <c r="H298" s="1" t="s">
@@ -13803,7 +13807,7 @@
       <c r="F299" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="G299" s="1" t="s">
+      <c r="G299" t="s">
         <v>1571</v>
       </c>
       <c r="H299" s="1" t="s">
@@ -13832,7 +13836,7 @@
       <c r="F300" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G300" s="1" t="s">
+      <c r="G300" t="s">
         <v>1571</v>
       </c>
       <c r="H300" s="1" t="s">
@@ -13861,7 +13865,7 @@
       <c r="F301" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G301" s="1" t="s">
+      <c r="G301" t="s">
         <v>1571</v>
       </c>
       <c r="H301" s="1" t="s">
@@ -13890,7 +13894,7 @@
       <c r="F302" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="G302" s="1" t="s">
+      <c r="G302" t="s">
         <v>1571</v>
       </c>
       <c r="H302" s="1" t="s">
@@ -13919,7 +13923,7 @@
       <c r="F303" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G303" s="1" t="s">
+      <c r="G303" t="s">
         <v>1571</v>
       </c>
       <c r="H303" s="1" t="s">
@@ -13948,7 +13952,7 @@
       <c r="F304" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G304" s="1" t="s">
+      <c r="G304" t="s">
         <v>1571</v>
       </c>
       <c r="H304" s="1" t="s">
@@ -13977,7 +13981,7 @@
       <c r="F305" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="G305" s="1" t="s">
+      <c r="G305" t="s">
         <v>1571</v>
       </c>
       <c r="H305" s="1" t="s">
@@ -14006,7 +14010,7 @@
       <c r="F306" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="G306" s="1" t="s">
+      <c r="G306" t="s">
         <v>1571</v>
       </c>
       <c r="H306" s="1" t="s">
@@ -14035,7 +14039,7 @@
       <c r="F307" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="G307" s="1" t="s">
+      <c r="G307" t="s">
         <v>1571</v>
       </c>
       <c r="H307" s="1" t="s">
@@ -14064,7 +14068,7 @@
       <c r="F308" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="G308" s="1" t="s">
+      <c r="G308" t="s">
         <v>1571</v>
       </c>
       <c r="H308" s="1" t="s">
@@ -14093,7 +14097,7 @@
       <c r="F309" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="G309" s="1" t="s">
+      <c r="G309" t="s">
         <v>1571</v>
       </c>
       <c r="H309" s="1" t="s">
@@ -14122,7 +14126,7 @@
       <c r="F310" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G310" s="1" t="s">
+      <c r="G310" t="s">
         <v>1571</v>
       </c>
       <c r="H310" s="1" t="s">
@@ -14151,7 +14155,7 @@
       <c r="F311" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="G311" s="1" t="s">
+      <c r="G311" t="s">
         <v>1571</v>
       </c>
       <c r="H311" s="1" t="s">
@@ -14180,7 +14184,7 @@
       <c r="F312" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="G312" s="1" t="s">
+      <c r="G312" t="s">
         <v>1571</v>
       </c>
       <c r="H312" s="1" t="s">
@@ -14209,7 +14213,7 @@
       <c r="F313" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G313" s="1" t="s">
+      <c r="G313" t="s">
         <v>1571</v>
       </c>
       <c r="H313" s="1" t="s">
@@ -14238,7 +14242,7 @@
       <c r="F314" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G314" s="1" t="s">
+      <c r="G314" t="s">
         <v>1571</v>
       </c>
       <c r="H314" s="1" t="s">
@@ -14267,7 +14271,7 @@
       <c r="F315" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="G315" s="1" t="s">
+      <c r="G315" t="s">
         <v>1571</v>
       </c>
       <c r="H315" s="1" t="s">
@@ -14296,7 +14300,7 @@
       <c r="F316" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G316" s="1" t="s">
+      <c r="G316" t="s">
         <v>1571</v>
       </c>
       <c r="H316" s="1" t="s">
@@ -14325,7 +14329,7 @@
       <c r="F317" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G317" s="1" t="s">
+      <c r="G317" t="s">
         <v>1571</v>
       </c>
       <c r="H317" s="1" t="s">
@@ -14354,7 +14358,7 @@
       <c r="F318" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="G318" s="1" t="s">
+      <c r="G318" t="s">
         <v>1571</v>
       </c>
       <c r="H318" s="1" t="s">
@@ -14383,7 +14387,7 @@
       <c r="F319" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="G319" s="1" t="s">
+      <c r="G319" t="s">
         <v>1571</v>
       </c>
       <c r="H319" s="1" t="s">
@@ -14412,7 +14416,7 @@
       <c r="F320" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="G320" s="1" t="s">
+      <c r="G320" t="s">
         <v>1571</v>
       </c>
       <c r="H320" s="1" t="s">
@@ -14441,7 +14445,7 @@
       <c r="F321" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="G321" s="1" t="s">
+      <c r="G321" t="s">
         <v>1571</v>
       </c>
       <c r="H321" s="1" t="s">
@@ -14470,7 +14474,7 @@
       <c r="F322" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="G322" s="1" t="s">
+      <c r="G322" t="s">
         <v>1571</v>
       </c>
       <c r="H322" s="1" t="s">
@@ -14499,7 +14503,7 @@
       <c r="F323" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="G323" s="1" t="s">
+      <c r="G323" t="s">
         <v>1571</v>
       </c>
       <c r="H323" s="1" t="s">
@@ -14528,7 +14532,7 @@
       <c r="F324" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="G324" s="1" t="s">
+      <c r="G324" t="s">
         <v>1571</v>
       </c>
       <c r="H324" s="1" t="s">
@@ -14557,7 +14561,7 @@
       <c r="F325" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="G325" s="1" t="s">
+      <c r="G325" t="s">
         <v>1571</v>
       </c>
       <c r="H325" s="1" t="s">
@@ -14586,7 +14590,7 @@
       <c r="F326" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="G326" s="1" t="s">
+      <c r="G326" t="s">
         <v>1571</v>
       </c>
       <c r="H326" s="1" t="s">
@@ -14615,7 +14619,7 @@
       <c r="F327" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="G327" s="1" t="s">
+      <c r="G327" t="s">
         <v>1571</v>
       </c>
       <c r="H327" s="1" t="s">
@@ -14644,7 +14648,7 @@
       <c r="F328" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="G328" s="1" t="s">
+      <c r="G328" t="s">
         <v>1571</v>
       </c>
       <c r="H328" s="1" t="s">
@@ -14673,7 +14677,7 @@
       <c r="F329" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="G329" s="1" t="s">
+      <c r="G329" t="s">
         <v>1571</v>
       </c>
       <c r="H329" s="1" t="s">
@@ -14702,7 +14706,7 @@
       <c r="F330" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="G330" s="1" t="s">
+      <c r="G330" t="s">
         <v>1571</v>
       </c>
       <c r="H330" s="1" t="s">
@@ -14731,7 +14735,7 @@
       <c r="F331" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="G331" s="1" t="s">
+      <c r="G331" t="s">
         <v>1571</v>
       </c>
       <c r="H331" s="1" t="s">
@@ -14760,7 +14764,7 @@
       <c r="F332" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="G332" s="1" t="s">
+      <c r="G332" t="s">
         <v>1571</v>
       </c>
       <c r="H332" s="1" t="s">
@@ -14789,7 +14793,7 @@
       <c r="F333" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="G333" s="1" t="s">
+      <c r="G333" t="s">
         <v>1571</v>
       </c>
       <c r="H333" s="1" t="s">
@@ -14818,7 +14822,7 @@
       <c r="F334" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="G334" s="1" t="s">
+      <c r="G334" t="s">
         <v>1571</v>
       </c>
       <c r="H334" s="1" t="s">
@@ -14847,7 +14851,7 @@
       <c r="F335" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="G335" s="1" t="s">
+      <c r="G335" t="s">
         <v>1571</v>
       </c>
       <c r="H335" s="1" t="s">
@@ -14876,7 +14880,7 @@
       <c r="F336" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="G336" s="1" t="s">
+      <c r="G336" t="s">
         <v>1571</v>
       </c>
       <c r="H336" s="1" t="s">
@@ -14905,7 +14909,7 @@
       <c r="F337" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G337" s="1" t="s">
+      <c r="G337" t="s">
         <v>1571</v>
       </c>
       <c r="H337" s="1" t="s">
@@ -14934,7 +14938,7 @@
       <c r="F338" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="G338" s="1" t="s">
+      <c r="G338" t="s">
         <v>1571</v>
       </c>
       <c r="H338" s="1" t="s">
@@ -14963,7 +14967,7 @@
       <c r="F339" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="G339" s="1" t="s">
+      <c r="G339" t="s">
         <v>1571</v>
       </c>
       <c r="H339" s="1" t="s">
@@ -14992,7 +14996,7 @@
       <c r="F340" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="G340" s="1" t="s">
+      <c r="G340" t="s">
         <v>1571</v>
       </c>
       <c r="H340" s="1" t="s">
@@ -15021,7 +15025,7 @@
       <c r="F341" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G341" s="1" t="s">
+      <c r="G341" t="s">
         <v>1571</v>
       </c>
       <c r="H341" s="1" t="s">
@@ -15050,7 +15054,7 @@
       <c r="F342" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="G342" s="1" t="s">
+      <c r="G342" t="s">
         <v>1571</v>
       </c>
       <c r="H342" s="1" t="s">
@@ -15079,7 +15083,7 @@
       <c r="F343" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="G343" s="1" t="s">
+      <c r="G343" t="s">
         <v>1571</v>
       </c>
       <c r="H343" s="1" t="s">
@@ -15108,7 +15112,7 @@
       <c r="F344" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="G344" s="1" t="s">
+      <c r="G344" t="s">
         <v>1571</v>
       </c>
       <c r="H344" s="1" t="s">
@@ -15137,7 +15141,7 @@
       <c r="F345" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="G345" s="1" t="s">
+      <c r="G345" t="s">
         <v>1571</v>
       </c>
       <c r="H345" s="1" t="s">
@@ -15166,7 +15170,7 @@
       <c r="F346" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="G346" s="1" t="s">
+      <c r="G346" t="s">
         <v>1571</v>
       </c>
       <c r="H346" s="1" t="s">
@@ -15195,7 +15199,7 @@
       <c r="F347" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="G347" s="1" t="s">
+      <c r="G347" t="s">
         <v>1571</v>
       </c>
       <c r="H347" s="1" t="s">
@@ -15224,7 +15228,7 @@
       <c r="F348" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="G348" s="1" t="s">
+      <c r="G348" t="s">
         <v>1571</v>
       </c>
       <c r="H348" s="1" t="s">
@@ -15253,7 +15257,7 @@
       <c r="F349" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="G349" s="1" t="s">
+      <c r="G349" t="s">
         <v>1571</v>
       </c>
       <c r="H349" s="1" t="s">
@@ -15282,7 +15286,7 @@
       <c r="F350" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="G350" s="1" t="s">
+      <c r="G350" t="s">
         <v>1571</v>
       </c>
       <c r="H350" s="1" t="s">
@@ -15311,7 +15315,7 @@
       <c r="F351" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="G351" s="1" t="s">
+      <c r="G351" t="s">
         <v>1571</v>
       </c>
       <c r="H351" s="1" t="s">
@@ -15340,7 +15344,7 @@
       <c r="F352" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="G352" s="1" t="s">
+      <c r="G352" t="s">
         <v>1571</v>
       </c>
       <c r="H352" s="1" t="s">
@@ -15369,7 +15373,7 @@
       <c r="F353" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="G353" s="1" t="s">
+      <c r="G353" t="s">
         <v>1571</v>
       </c>
       <c r="H353" s="1" t="s">
@@ -15398,7 +15402,7 @@
       <c r="F354" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="G354" s="1" t="s">
+      <c r="G354" t="s">
         <v>1571</v>
       </c>
       <c r="H354" s="1" t="s">
@@ -15427,7 +15431,7 @@
       <c r="F355" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="G355" s="1" t="s">
+      <c r="G355" t="s">
         <v>1571</v>
       </c>
       <c r="H355" s="1" t="s">
@@ -15456,7 +15460,7 @@
       <c r="F356" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="G356" s="1" t="s">
+      <c r="G356" t="s">
         <v>1571</v>
       </c>
       <c r="H356" s="1" t="s">
@@ -15485,7 +15489,7 @@
       <c r="F357" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="G357" s="1" t="s">
+      <c r="G357" t="s">
         <v>1571</v>
       </c>
       <c r="H357" s="1" t="s">
@@ -15514,7 +15518,7 @@
       <c r="F358" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="G358" s="1" t="s">
+      <c r="G358" t="s">
         <v>1571</v>
       </c>
       <c r="H358" s="1" t="s">
@@ -15543,7 +15547,7 @@
       <c r="F359" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="G359" s="1" t="s">
+      <c r="G359" t="s">
         <v>1571</v>
       </c>
       <c r="H359" s="1" t="s">
@@ -15572,7 +15576,7 @@
       <c r="F360" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="G360" s="1" t="s">
+      <c r="G360" t="s">
         <v>1571</v>
       </c>
       <c r="H360" s="1" t="s">
@@ -15601,7 +15605,7 @@
       <c r="F361" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="G361" s="1" t="s">
+      <c r="G361" t="s">
         <v>1571</v>
       </c>
       <c r="H361" s="1" t="s">
@@ -15630,7 +15634,7 @@
       <c r="F362" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="G362" s="1" t="s">
+      <c r="G362" t="s">
         <v>1571</v>
       </c>
       <c r="H362" s="1" t="s">
@@ -15659,7 +15663,7 @@
       <c r="F363" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="G363" s="1" t="s">
+      <c r="G363" t="s">
         <v>1571</v>
       </c>
       <c r="H363" s="1" t="s">
@@ -15688,7 +15692,7 @@
       <c r="F364" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="G364" s="1" t="s">
+      <c r="G364" t="s">
         <v>1571</v>
       </c>
       <c r="H364" s="1" t="s">
@@ -15717,7 +15721,7 @@
       <c r="F365" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="G365" s="1" t="s">
+      <c r="G365" t="s">
         <v>1571</v>
       </c>
       <c r="H365" s="1" t="s">
@@ -15746,7 +15750,7 @@
       <c r="F366" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="G366" s="1" t="s">
+      <c r="G366" t="s">
         <v>1571</v>
       </c>
       <c r="H366" s="1" t="s">
@@ -15775,7 +15779,7 @@
       <c r="F367" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="G367" s="1" t="s">
+      <c r="G367" t="s">
         <v>1571</v>
       </c>
       <c r="H367" s="1" t="s">
@@ -15804,7 +15808,7 @@
       <c r="F368" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="G368" s="1" t="s">
+      <c r="G368" t="s">
         <v>1571</v>
       </c>
       <c r="H368" s="1" t="s">
@@ -15833,7 +15837,7 @@
       <c r="F369" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="G369" s="1" t="s">
+      <c r="G369" t="s">
         <v>1571</v>
       </c>
       <c r="H369" s="1" t="s">
@@ -15862,7 +15866,7 @@
       <c r="F370" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="G370" s="1" t="s">
+      <c r="G370" t="s">
         <v>1571</v>
       </c>
       <c r="H370" s="1" t="s">
@@ -15891,7 +15895,7 @@
       <c r="F371" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="G371" s="1" t="s">
+      <c r="G371" t="s">
         <v>1571</v>
       </c>
       <c r="H371" s="1" t="s">
@@ -15920,7 +15924,7 @@
       <c r="F372" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="G372" s="1" t="s">
+      <c r="G372" t="s">
         <v>1571</v>
       </c>
       <c r="H372" s="1" t="s">
@@ -15949,7 +15953,7 @@
       <c r="F373" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="G373" s="1" t="s">
+      <c r="G373" t="s">
         <v>1571</v>
       </c>
       <c r="H373" s="1" t="s">
@@ -15978,7 +15982,7 @@
       <c r="F374" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="G374" s="1" t="s">
+      <c r="G374" t="s">
         <v>1571</v>
       </c>
       <c r="H374" s="1" t="s">
@@ -16007,7 +16011,7 @@
       <c r="F375" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="G375" s="1" t="s">
+      <c r="G375" t="s">
         <v>1571</v>
       </c>
       <c r="H375" s="1" t="s">
@@ -16036,7 +16040,7 @@
       <c r="F376" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="G376" s="1" t="s">
+      <c r="G376" t="s">
         <v>1571</v>
       </c>
       <c r="H376" s="1" t="s">
@@ -16065,7 +16069,7 @@
       <c r="F377" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="G377" s="1" t="s">
+      <c r="G377" t="s">
         <v>1571</v>
       </c>
       <c r="H377" s="1" t="s">
@@ -16094,7 +16098,7 @@
       <c r="F378" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="G378" s="1" t="s">
+      <c r="G378" t="s">
         <v>1571</v>
       </c>
       <c r="H378" s="1" t="s">
@@ -16123,7 +16127,7 @@
       <c r="F379" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="G379" s="1" t="s">
+      <c r="G379" t="s">
         <v>1571</v>
       </c>
       <c r="H379" s="1" t="s">
@@ -16152,7 +16156,7 @@
       <c r="F380" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G380" s="1" t="s">
+      <c r="G380" t="s">
         <v>1571</v>
       </c>
       <c r="H380" s="1" t="s">
@@ -16181,7 +16185,7 @@
       <c r="F381" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="G381" s="1" t="s">
+      <c r="G381" t="s">
         <v>1571</v>
       </c>
       <c r="H381" s="1" t="s">
@@ -16210,7 +16214,7 @@
       <c r="F382" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="G382" s="1" t="s">
+      <c r="G382" t="s">
         <v>1571</v>
       </c>
       <c r="H382" s="1" t="s">
@@ -16239,7 +16243,7 @@
       <c r="F383" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G383" s="1" t="s">
+      <c r="G383" t="s">
         <v>1571</v>
       </c>
       <c r="H383" s="1" t="s">
@@ -16268,7 +16272,7 @@
       <c r="F384" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="G384" s="1" t="s">
+      <c r="G384" t="s">
         <v>1571</v>
       </c>
       <c r="H384" s="1" t="s">
@@ -16297,7 +16301,7 @@
       <c r="F385" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="G385" s="1" t="s">
+      <c r="G385" t="s">
         <v>1571</v>
       </c>
       <c r="H385" s="1" t="s">
@@ -16326,7 +16330,7 @@
       <c r="F386" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="G386" s="1" t="s">
+      <c r="G386" t="s">
         <v>1571</v>
       </c>
       <c r="H386" s="1" t="s">
